--- a/4. PDH DP 3N30 (MERAH) 3T25(COKLAT MUDA) 4N31(PUTIH) 5N38(HIJAU TUA) 5T38(PINKMUDA)/DP5NT38.xlsx
+++ b/4. PDH DP 3N30 (MERAH) 3T25(COKLAT MUDA) 4N31(PUTIH) 5N38(HIJAU TUA) 5T38(PINKMUDA)/DP5NT38.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\4. PDH DP 3N30 (MERAH) 3T25(COKLAT MUDA) 4N31(PUTIH) 5N38(HIJAU TUA) 5T38(PINKMUDA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664D77D5-E509-4AAE-A7C5-66C30390369E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF44473-60DC-495A-8DE9-13323480E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{648D9222-A383-4770-A314-359676E95833}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{648D9222-A383-4770-A314-359676E95833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="142">
   <si>
     <t>KELAS</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>TOPI</t>
+  </si>
+  <si>
+    <t>wanita</t>
+  </si>
+  <si>
+    <t>dp5nt38</t>
+  </si>
+  <si>
+    <t>dp3t24</t>
+  </si>
+  <si>
+    <t>dp3t26</t>
+  </si>
+  <si>
+    <t>jml</t>
   </si>
 </sst>
 </file>
@@ -501,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,6 +535,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E239AF7-B0E1-41C1-A6A5-DDF7A97D9254}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -851,7 +869,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -867,8 +885,20 @@
       <c r="E1" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -884,8 +914,18 @@
       <c r="E2" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <f>SUM(J2:K2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -901,8 +941,25 @@
       <c r="E3" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="5">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3">
+        <f>COUNTIF(D2:$D$66,I3)</f>
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L10" si="0">SUM(J3:K3)</f>
+        <v>7</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -918,8 +975,25 @@
       <c r="E4" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="5">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <f>COUNTIF(D3:$D$66,I4)</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P4" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -935,8 +1009,25 @@
       <c r="E5" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="5">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3">
+        <f>COUNTIF(D4:$D$66,I5)</f>
+        <v>14</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -952,8 +1043,25 @@
       <c r="E6" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="5">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3">
+        <f>COUNTIF(D5:$D$66,I6)</f>
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="P6" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -969,8 +1077,25 @@
       <c r="E7" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <f>COUNTIF(D6:$D$66,I7)</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -986,8 +1111,25 @@
       <c r="E8" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="5">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3">
+        <f>COUNTIF(D7:$D$66,I8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1003,8 +1145,22 @@
       <c r="E9" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="5">
+        <v>45</v>
+      </c>
+      <c r="J9" s="3">
+        <f>COUNTIF(D8:$D$66,I9)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1020,8 +1176,25 @@
       <c r="E10" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+      <c r="J10" s="3">
+        <f>SUM(J3:J9)</f>
+        <v>61</v>
+      </c>
+      <c r="K10" s="3">
+        <f>SUM(K2:K9)</f>
+        <v>43</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="P10" s="3">
+        <f>SUM(P3:P9)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1037,8 +1210,11 @@
       <c r="E11" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1054,8 +1230,14 @@
       <c r="E12" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="7">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1071,8 +1253,14 @@
       <c r="E13" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="7">
+        <v>44</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1088,8 +1276,9 @@
       <c r="E14" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1105,8 +1294,9 @@
       <c r="E15" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1122,8 +1312,9 @@
       <c r="E16" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -1139,8 +1330,9 @@
       <c r="E17" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1156,8 +1348,9 @@
       <c r="E18" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1173,8 +1366,9 @@
       <c r="E19" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -1190,8 +1384,9 @@
       <c r="E20" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1207,8 +1402,9 @@
       <c r="E21" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1224,8 +1420,9 @@
       <c r="E22" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -1241,8 +1438,9 @@
       <c r="E23" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -1258,8 +1456,9 @@
       <c r="E24" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -1275,8 +1474,9 @@
       <c r="E25" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -1292,8 +1492,9 @@
       <c r="E26" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -1309,8 +1510,9 @@
       <c r="E27" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -1326,8 +1528,9 @@
       <c r="E28" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -1343,8 +1546,9 @@
       <c r="E29" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -1360,8 +1564,9 @@
       <c r="E30" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -1377,8 +1582,9 @@
       <c r="E31" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -1394,8 +1600,9 @@
       <c r="E32" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -1411,8 +1618,9 @@
       <c r="E33" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -1428,8 +1636,9 @@
       <c r="E34" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -1445,8 +1654,9 @@
       <c r="E35" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
@@ -1462,8 +1672,9 @@
       <c r="E36" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
@@ -1479,8 +1690,9 @@
       <c r="E37" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
@@ -1496,8 +1708,9 @@
       <c r="E38" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
@@ -1513,8 +1726,9 @@
       <c r="E39" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>75</v>
       </c>
@@ -1530,8 +1744,9 @@
       <c r="E40" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>76</v>
       </c>
@@ -1547,8 +1762,9 @@
       <c r="E41" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -1564,8 +1780,9 @@
       <c r="E42" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>78</v>
       </c>
@@ -1581,8 +1798,9 @@
       <c r="E43" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>79</v>
       </c>
@@ -1598,8 +1816,9 @@
       <c r="E44" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>80</v>
       </c>
@@ -1615,8 +1834,9 @@
       <c r="E45" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
@@ -1632,8 +1852,9 @@
       <c r="E46" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
@@ -1649,8 +1870,9 @@
       <c r="E47" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
@@ -1666,8 +1888,9 @@
       <c r="E48" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
@@ -1683,8 +1906,9 @@
       <c r="E49" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
@@ -1700,8 +1924,9 @@
       <c r="E50" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>86</v>
       </c>
@@ -1717,8 +1942,9 @@
       <c r="E51" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>87</v>
       </c>
@@ -1734,8 +1960,9 @@
       <c r="E52" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>88</v>
       </c>
@@ -1751,8 +1978,9 @@
       <c r="E53" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
@@ -1768,8 +1996,9 @@
       <c r="E54" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>90</v>
       </c>
@@ -1785,8 +2014,9 @@
       <c r="E55" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>91</v>
       </c>
@@ -1802,8 +2032,9 @@
       <c r="E56" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>92</v>
       </c>
@@ -1819,8 +2050,9 @@
       <c r="E57" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>93</v>
       </c>
@@ -1836,8 +2068,9 @@
       <c r="E58" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>94</v>
       </c>
@@ -1853,8 +2086,9 @@
       <c r="E59" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>95</v>
       </c>
@@ -1870,8 +2104,9 @@
       <c r="E60" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>96</v>
       </c>
@@ -1887,8 +2122,9 @@
       <c r="E61" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>97</v>
       </c>
@@ -1904,8 +2140,9 @@
       <c r="E62" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>98</v>
       </c>
@@ -1921,8 +2158,9 @@
       <c r="E63" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>99</v>
       </c>
@@ -1938,8 +2176,9 @@
       <c r="E64" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>100</v>
       </c>
@@ -1955,8 +2194,9 @@
       <c r="E65" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>101</v>
       </c>
@@ -1972,8 +2212,12 @@
       <c r="E66" s="5">
         <v>58</v>
       </c>
+      <c r="I66"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I66">
+    <sortCondition ref="I2:I66"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.57999999999999996" bottom="0.15" header="0.3" footer="0.12"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/4. PDH DP 3N30 (MERAH) 3T25(COKLAT MUDA) 4N31(PUTIH) 5N38(HIJAU TUA) 5T38(PINKMUDA)/DP5NT38.xlsx
+++ b/4. PDH DP 3N30 (MERAH) 3T25(COKLAT MUDA) 4N31(PUTIH) 5N38(HIJAU TUA) 5T38(PINKMUDA)/DP5NT38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\4. PDH DP 3N30 (MERAH) 3T25(COKLAT MUDA) 4N31(PUTIH) 5N38(HIJAU TUA) 5T38(PINKMUDA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF44473-60DC-495A-8DE9-13323480E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718EF2C-DE4E-4F5D-82DC-41A59DCE0DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{648D9222-A383-4770-A314-359676E95833}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{648D9222-A383-4770-A314-359676E95833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
   <si>
     <t>KELAS</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>jml</t>
+  </si>
+  <si>
+    <t>suda diambil</t>
   </si>
 </sst>
 </file>
@@ -485,12 +488,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -516,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +547,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,14 +882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E239AF7-B0E1-41C1-A6A5-DDF7A97D9254}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="209" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31" style="11" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="2" bestFit="1" customWidth="1"/>
@@ -873,7 +900,7 @@
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -902,7 +929,7 @@
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -929,7 +956,7 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -963,7 +990,7 @@
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -997,7 +1024,7 @@
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1031,7 +1058,7 @@
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1065,7 +1092,7 @@
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1099,7 +1126,7 @@
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1133,7 +1160,7 @@
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1164,7 +1191,7 @@
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1195,20 +1222,23 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
         <v>40</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="12">
         <v>55</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="I11" t="s">
         <v>137</v>
@@ -1218,7 +1248,7 @@
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1241,7 +1271,7 @@
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1264,7 +1294,7 @@
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1282,7 +1312,7 @@
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1300,7 +1330,7 @@
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1318,7 +1348,7 @@
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1336,7 +1366,7 @@
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1354,7 +1384,7 @@
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1372,7 +1402,7 @@
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1390,7 +1420,7 @@
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1408,7 +1438,7 @@
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1426,7 +1456,7 @@
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1444,7 +1474,7 @@
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1462,7 +1492,7 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1480,7 +1510,7 @@
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1498,7 +1528,7 @@
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1516,7 +1546,7 @@
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1534,7 +1564,7 @@
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1552,7 +1582,7 @@
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1570,7 +1600,7 @@
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1588,7 +1618,7 @@
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1606,7 +1636,7 @@
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1624,7 +1654,7 @@
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1642,7 +1672,7 @@
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1660,7 +1690,7 @@
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1678,7 +1708,7 @@
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1696,7 +1726,7 @@
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -1714,7 +1744,7 @@
       <c r="A39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -1732,7 +1762,7 @@
       <c r="A40" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1750,7 +1780,7 @@
       <c r="A41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -1768,7 +1798,7 @@
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -1786,7 +1816,7 @@
       <c r="A43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1804,7 +1834,7 @@
       <c r="A44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1822,7 +1852,7 @@
       <c r="A45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -1840,7 +1870,7 @@
       <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1858,7 +1888,7 @@
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -1876,7 +1906,7 @@
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1894,7 +1924,7 @@
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -1912,7 +1942,7 @@
       <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -1930,7 +1960,7 @@
       <c r="A51" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -1948,7 +1978,7 @@
       <c r="A52" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1966,7 +1996,7 @@
       <c r="A53" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -1984,7 +2014,7 @@
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -2002,7 +2032,7 @@
       <c r="A55" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -2020,7 +2050,7 @@
       <c r="A56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2038,7 +2068,7 @@
       <c r="A57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2056,7 +2086,7 @@
       <c r="A58" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2074,7 +2104,7 @@
       <c r="A59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -2092,7 +2122,7 @@
       <c r="A60" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2110,7 +2140,7 @@
       <c r="A61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -2128,7 +2158,7 @@
       <c r="A62" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -2146,7 +2176,7 @@
       <c r="A63" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -2164,7 +2194,7 @@
       <c r="A64" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -2182,7 +2212,7 @@
       <c r="A65" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -2200,7 +2230,7 @@
       <c r="A66" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="6" t="s">
